--- a/console/Networking/launchExcel/create.xlsx
+++ b/console/Networking/launchExcel/create.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43148042-0C6F-844C-B55B-65D0E3FC9378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31180" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="219">
   <si>
     <r>
       <rPr>
@@ -1816,12 +1822,6 @@
     <t>Data Disk</t>
   </si>
   <si>
-    <t>Cloud Disk Service</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>VPC</t>
   </si>
   <si>
@@ -1837,90 +1837,18 @@
     <t>A corresponding default subnet will created under the selected virtual private cloud for you</t>
   </si>
   <si>
-    <t>under the subnet.</t>
-  </si>
-  <si>
     <t>Security Group</t>
   </si>
   <si>
-    <t>Create security group</t>
-  </si>
-  <si>
-    <t>Security group is a kind of distributed virtual firewall with status, which users use to implement Virtual Machines</t>
-  </si>
-  <si>
-    <t>/Network IAM of container,</t>
-  </si>
-  <si>
-    <t>'The default security group allows all traffic'</t>
-  </si>
-  <si>
-    <t>Risk Notification</t>
-  </si>
-  <si>
-    <t>The security group selected currently will allow all traffic, thus it is prone to direct attack by the attacker</t>
-  </si>
-  <si>
-    <t>/scanner; to guarantee the business security, it is suggested to reasonably set the allowed traffic of the security group.</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Public IP</t>
-  </si>
-  <si>
-    <t>Add public IP</t>
-  </si>
-  <si>
-    <t>Billing by Bandwidth</t>
-  </si>
-  <si>
-    <t>By Fixed Bandwidth</t>
-  </si>
-  <si>
     <t>By Traffic</t>
   </si>
   <si>
-    <t>For the users purchasing Public IP of fixed bandwidth type, billing by bandwidth cap will be designed according to their selected public network with the unit of Mbps, which suits the business scene with more stable network situation.</t>
-  </si>
-  <si>
-    <t>For the users purchasing Public IP of traffic usage type, traffic billing will be designed according to their actual usage with the unit of GB, which suits the business scene with more fluctuant network situation.</t>
-  </si>
-  <si>
-    <t>'/day/piece'</t>
-  </si>
-  <si>
-    <t>Traffic Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMB </t>
-  </si>
-  <si>
-    <t>RMB.</t>
-  </si>
-  <si>
-    <t>ISP Line</t>
-  </si>
-  <si>
     <t>If higher access speed is needed, it is recommended to select BGP</t>
   </si>
   <si>
-    <t>Bandwidth Cap</t>
-  </si>
-  <si>
-    <t>Not purchasing EIP for now is supported, it is okay to purchase and bind after the VM instance creation is completed;</t>
-  </si>
-  <si>
-    <t>Click **Not Buy**</t>
-  </si>
-  <si>
     <t>Selected Configuration</t>
   </si>
   <si>
-    <t>Specification</t>
-  </si>
-  <si>
     <t>System Disk</t>
   </si>
   <si>
@@ -1933,9 +1861,6 @@
     <t>'By Bandwidth'</t>
   </si>
   <si>
-    <t>Purchase Duration</t>
-  </si>
-  <si>
     <t>'X Month(s)'</t>
   </si>
   <si>
@@ -1951,33 +1876,18 @@
     <t>/hour</t>
   </si>
   <si>
-    <t>(Public IP)</t>
-  </si>
-  <si>
-    <t>The current selected image size exceeds the allowable size of the system disk, please change the image</t>
-  </si>
-  <si>
-    <t>Create Now</t>
-  </si>
-  <si>
     <t>'Calculating price…'</t>
   </si>
   <si>
     <t>'Public Image'</t>
   </si>
   <si>
-    <t>“Security Image'</t>
-  </si>
-  <si>
     <t>'Private Image'</t>
   </si>
   <si>
     <t>'Shared Image'</t>
   </si>
   <si>
-    <t>'Image Marketplace'</t>
-  </si>
-  <si>
     <t>'Core'</t>
   </si>
   <si>
@@ -1988,41 +1898,157 @@
   </si>
   <si>
     <t>Block Local Disk (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx Virtual Machines can also be created </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(Traffic)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create a new subnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EIP Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If the public IP of traffic usage type is selected for use, Pay-As-You-Go is adopted based on the unit of day, and no cost shall be paid in the creation stage. Independent from the billing type of the host at right.</t>
+    <t>cloud disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">For the users purchasing EIP billed by traffic, Public IP cost and actual traffic cost shall be simultaneously paid, settlement is based on the unit of day, and users will only be billed for the outflow traffic. For example, if BGP IP is purchased, and the outflow traffic of the day is 10GB, then you need to pay RMB xxx/GB in total for the public IP cost </t>
+    <t>Networking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP address will be allocated automatically'</t>
+    <t>Create Subnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Another xxx VMs can be created </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the subnet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Security Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security group is a stateful distributed virtual firewall, used to realize the network identity and access management of the VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Container,</t>
+  </si>
+  <si>
+    <t>The currently selected Security Group will permit flow of all ports and be vulnerable to direct attack by the attacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By fixed bandwidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billing Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The cost of EIP of fixed bandwidth type which is suitable for scenarios with stable network is based on your selection of bandwidth upper limit, and the unit is Mbps. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/day/EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'The default security group allows all traffic'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/scanner. To ensure the security of the service, it is recommended to set the permit ports of the security group reasonably.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cost of EIP of traffic type which is suitable for scenarios with large fluctuation of network is based on the actual usage, and the unit is GB. Details.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need to pay for the EIP charged by traffic after using by days, and no cost shall be paid for the creation. Independent of the billing type of the VM displayed on the right. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need to pay for the occupation and the actual usage by days if purchasing the EIP charged by traffic and only the outgoing traffic will be charged. E.g. if you buy BGP EIP, and the daily outbound traffic is 10GB, then you need to pay a total cost of ¥XXX for the EIP on that day is ¥ 0.00+10GB * ¥ 0.8 / GB = ¥ 8.50.</t>
+  </si>
+  <si>
+    <t>IP provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporting to purchase and associate an EIP after the VM instance creation.</t>
+  </si>
+  <si>
+    <t>Click to purchase later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The current selected image size exceeds the allowable size of the system disk, please change the image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Security Image'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketplace'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP address will be assigned automatically</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2065,9 +2091,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2415,832 +2440,832 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="15" spans="1:3" ht="38">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="16" spans="1:3" ht="38">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="38">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="57">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="114">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="38">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="38">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="19">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="19">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="38">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="19">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="67" spans="1:3" ht="19">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    <row r="68" spans="1:3" ht="19">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
+    <row r="69" spans="1:3" ht="19">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
